--- a/100runs/run089/NotionalETEOutput089.xlsx
+++ b/100runs/run089/NotionalETEOutput089.xlsx
@@ -49,22 +49,22 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER_State_Update</t>
+    <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
-    <t>Missile_BRAVER_State_Update</t>
+    <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_120.MISSILE_HELLMASKER_120</t>
+    <t>MISSILE_HIGHWIND_120.MISSILE_HIGHWIND_120</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_95.MISSILE_BRAVER_95</t>
+    <t>MISSILE_SOMERSAULT_167.MISSILE_SOMERSAULT_167</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER</t>
+    <t>MISSILE_HIGHWIND</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER</t>
+    <t>MISSILE_SOMERSAULT</t>
   </si>
 </sst>
 </file>
@@ -480,22 +480,22 @@
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>161.5388442589469</v>
+        <v>1116578.608158509</v>
       </c>
       <c r="G2">
-        <v>-94.95428033351287</v>
+        <v>4841128.630165158</v>
       </c>
       <c r="H2">
-        <v>845.2002429800648</v>
+        <v>3985227.07605551</v>
       </c>
       <c r="I2">
-        <v>-1034.826683744647</v>
+        <v>1114861.106932419</v>
       </c>
       <c r="J2">
-        <v>2140.115831741994</v>
+        <v>4843224.136944396</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984370.837290228</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -515,22 +515,22 @@
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>161.5388442589469</v>
+        <v>1116578.608158509</v>
       </c>
       <c r="G3">
-        <v>-94.95428033351287</v>
+        <v>4841128.630165158</v>
       </c>
       <c r="H3">
-        <v>845.2002429800648</v>
+        <v>3985227.07605551</v>
       </c>
       <c r="I3">
-        <v>-1014.396449535901</v>
+        <v>1114890.720922229</v>
       </c>
       <c r="J3">
-        <v>2088.055814631122</v>
+        <v>4843175.485347499</v>
       </c>
       <c r="K3">
-        <v>346.7811899297572</v>
+        <v>3984674.633321556</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,22 +550,22 @@
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>161.5388442589469</v>
+        <v>1116578.608158509</v>
       </c>
       <c r="G4">
-        <v>-94.95428033351287</v>
+        <v>4841128.630165158</v>
       </c>
       <c r="H4">
-        <v>845.2002429800648</v>
+        <v>3985227.07605551</v>
       </c>
       <c r="I4">
-        <v>-993.4631396052348</v>
+        <v>1114921.064129294</v>
       </c>
       <c r="J4">
-        <v>2035.995797520249</v>
+        <v>4843126.833750601</v>
       </c>
       <c r="K4">
-        <v>676.2702801417081</v>
+        <v>3984963.280690212</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,22 +585,22 @@
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>161.5388442589469</v>
+        <v>1116578.608158509</v>
       </c>
       <c r="G5">
-        <v>-94.95428033351287</v>
+        <v>4841128.630165158</v>
       </c>
       <c r="H5">
-        <v>845.2002429800648</v>
+        <v>3985227.07605551</v>
       </c>
       <c r="I5">
-        <v>-972.0143661758183</v>
+        <v>1114952.154509917</v>
       </c>
       <c r="J5">
-        <v>1983.935780409376</v>
+        <v>4843078.182153704</v>
       </c>
       <c r="K5">
-        <v>988.467270635855</v>
+        <v>3985236.779396194</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,22 +620,22 @@
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>161.5388442589469</v>
+        <v>1116578.608158509</v>
       </c>
       <c r="G6">
-        <v>-94.95428033351287</v>
+        <v>4841128.630165158</v>
       </c>
       <c r="H6">
-        <v>845.2002429800648</v>
+        <v>3985227.07605551</v>
       </c>
       <c r="I6">
-        <v>-950.0374364332123</v>
+        <v>1114984.010462561</v>
       </c>
       <c r="J6">
-        <v>1931.875763298504</v>
+        <v>4843029.530556806</v>
       </c>
       <c r="K6">
-        <v>1283.372161412196</v>
+        <v>3985495.129439504</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,22 +655,22 @@
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>161.5388442589469</v>
+        <v>1116578.608158509</v>
       </c>
       <c r="G7">
-        <v>-94.95428033351287</v>
+        <v>4841128.630165158</v>
       </c>
       <c r="H7">
-        <v>845.2002429800648</v>
+        <v>3985227.07605551</v>
       </c>
       <c r="I7">
-        <v>-927.5193450140988</v>
+        <v>1115016.650838732</v>
       </c>
       <c r="J7">
-        <v>1879.815746187631</v>
+        <v>4842980.878959908</v>
       </c>
       <c r="K7">
-        <v>1560.984952470733</v>
+        <v>3985738.330820141</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,22 +690,22 @@
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>161.5388442589469</v>
+        <v>1116578.608158509</v>
       </c>
       <c r="G8">
-        <v>-94.95428033351287</v>
+        <v>4841128.630165158</v>
       </c>
       <c r="H8">
-        <v>845.2002429800648</v>
+        <v>3985227.07605551</v>
       </c>
       <c r="I8">
-        <v>-904.4467663100542</v>
+        <v>1115050.094954137</v>
       </c>
       <c r="J8">
-        <v>1827.755729076758</v>
+        <v>4842932.22736301</v>
       </c>
       <c r="K8">
-        <v>1821.305643811465</v>
+        <v>3985966.383538104</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,22 +725,22 @@
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>161.5388442589469</v>
+        <v>1116578.608158509</v>
       </c>
       <c r="G9">
-        <v>-94.95428033351287</v>
+        <v>4841128.630165158</v>
       </c>
       <c r="H9">
-        <v>845.2002429800648</v>
+        <v>3985227.07605551</v>
       </c>
       <c r="I9">
-        <v>-880.8060465818056</v>
+        <v>1115084.362600116</v>
       </c>
       <c r="J9">
-        <v>1775.695711965885</v>
+        <v>4842883.575766113</v>
       </c>
       <c r="K9">
-        <v>2064.334235434392</v>
+        <v>3986179.287593395</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,22 +760,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>161.5388442589469</v>
+        <v>1116578.608158509</v>
       </c>
       <c r="G10">
-        <v>-79.27465586329977</v>
+        <v>4841145.14299824</v>
       </c>
       <c r="H10">
-        <v>845.2002429800648</v>
+        <v>3985227.07605551</v>
       </c>
       <c r="I10">
-        <v>-856.5831958793124</v>
+        <v>1115119.474055351</v>
       </c>
       <c r="J10">
-        <v>1723.635694855013</v>
+        <v>4842834.924169215</v>
       </c>
       <c r="K10">
-        <v>2290.070727339514</v>
+        <v>3986377.042986012</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,22 +795,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>125.3729876944492</v>
+        <v>1116529.927590191</v>
       </c>
       <c r="G11">
-        <v>-63.59503139308668</v>
+        <v>4841161.655831322</v>
       </c>
       <c r="H11">
-        <v>1041.281011951829</v>
+        <v>3985426.330399672</v>
       </c>
       <c r="I11">
-        <v>-831.7638797628841</v>
+        <v>1115155.45009787</v>
       </c>
       <c r="J11">
-        <v>1671.57567774414</v>
+        <v>4842786.272572318</v>
       </c>
       <c r="K11">
-        <v>2498.515119526829</v>
+        <v>3986559.649715956</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,22 +830,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>104.1273612380198</v>
+        <v>1116501.330198385</v>
       </c>
       <c r="G12">
-        <v>-47.91540692287361</v>
+        <v>4841178.168664404</v>
       </c>
       <c r="H12">
-        <v>1158.07674590264</v>
+        <v>3985545.016477309</v>
       </c>
       <c r="I12">
-        <v>-806.3334108204411</v>
+        <v>1115192.312017339</v>
       </c>
       <c r="J12">
-        <v>1619.515660633267</v>
+        <v>4842737.620975419</v>
       </c>
       <c r="K12">
-        <v>2689.667411996342</v>
+        <v>3986727.107783227</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -865,22 +865,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>90.71556316070402</v>
+        <v>1116483.277426667</v>
       </c>
       <c r="G13">
-        <v>-32.23578245266052</v>
+        <v>4841194.681497487</v>
       </c>
       <c r="H13">
-        <v>1241.542763035406</v>
+        <v>3985629.83339531</v>
       </c>
       <c r="I13">
-        <v>-780.2767399758924</v>
+        <v>1115230.081627662</v>
       </c>
       <c r="J13">
-        <v>1567.455643522394</v>
+        <v>4842688.969378522</v>
       </c>
       <c r="K13">
-        <v>2863.527604748049</v>
+        <v>3986879.417187825</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -900,22 +900,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>81.36222962326856</v>
+        <v>1116470.687496951</v>
       </c>
       <c r="G14">
-        <v>-16.55615798244742</v>
+        <v>4841211.194330569</v>
       </c>
       <c r="H14">
-        <v>1306.537705859739</v>
+        <v>3985695.880283917</v>
       </c>
       <c r="I14">
-        <v>-753.5784475834946</v>
+        <v>1115268.781279891</v>
       </c>
       <c r="J14">
-        <v>1515.395626411522</v>
+        <v>4842640.317781624</v>
       </c>
       <c r="K14">
-        <v>3020.095697781951</v>
+        <v>3987016.57792975</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -935,22 +935,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>74.3843627039609</v>
+        <v>1116461.295032358</v>
       </c>
       <c r="G15">
-        <v>-0.8765335122343451</v>
+        <v>4841227.707163651</v>
       </c>
       <c r="H15">
-        <v>1359.773605500171</v>
+        <v>3985749.97780875</v>
       </c>
       <c r="I15">
-        <v>-726.2227343029127</v>
+        <v>1115308.433875454</v>
       </c>
       <c r="J15">
-        <v>1463.335609300649</v>
+        <v>4842591.666184727</v>
       </c>
       <c r="K15">
-        <v>3159.371691098047</v>
+        <v>3987138.590009002</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -970,22 +970,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>68.92864520328885</v>
+        <v>1116453.951436664</v>
       </c>
       <c r="G16">
-        <v>14.80309095797875</v>
+        <v>4841244.219996734</v>
       </c>
       <c r="H16">
-        <v>1404.860526463291</v>
+        <v>3985795.794463356</v>
       </c>
       <c r="I16">
-        <v>-698.1934117495913</v>
+        <v>1115349.062879703</v>
       </c>
       <c r="J16">
-        <v>1411.275592189776</v>
+        <v>4842543.014587829</v>
       </c>
       <c r="K16">
-        <v>3281.355584696339</v>
+        <v>3987245.453425581</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1005,22 +1005,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>64.51457250142829</v>
+        <v>1116448.009933044</v>
       </c>
       <c r="G17">
-        <v>30.48271542819184</v>
+        <v>4841260.732829816</v>
       </c>
       <c r="H17">
-        <v>1443.965218846727</v>
+        <v>3985835.53206677</v>
       </c>
       <c r="I17">
-        <v>-669.473892914898</v>
+        <v>1115390.692335804</v>
       </c>
       <c r="J17">
-        <v>1359.215575078904</v>
+        <v>4842494.362990931</v>
       </c>
       <c r="K17">
-        <v>3386.047378576826</v>
+        <v>3987337.168179487</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1040,22 +1040,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>60.84931933666909</v>
+        <v>1116443.076367962</v>
       </c>
       <c r="G18">
-        <v>46.16233989840492</v>
+        <v>4841277.245662899</v>
       </c>
       <c r="H18">
-        <v>1478.490792667362</v>
+        <v>3985870.616438401</v>
       </c>
       <c r="I18">
-        <v>-640.0471823503734</v>
+        <v>1115433.346878963</v>
       </c>
       <c r="J18">
-        <v>1307.155557968031</v>
+        <v>4842445.711394033</v>
       </c>
       <c r="K18">
-        <v>3473.447072739508</v>
+        <v>3987413.734270719</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1075,22 +1075,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>57.74329305557095</v>
+        <v>1116438.89554276</v>
       </c>
       <c r="G19">
-        <v>61.84196436861802</v>
+        <v>4841293.758495981</v>
       </c>
       <c r="H19">
-        <v>1509.398128779339</v>
+        <v>3985902.024011001</v>
       </c>
       <c r="I19">
-        <v>-609.8958661102746</v>
+        <v>1115477.051751005</v>
       </c>
       <c r="J19">
-        <v>1255.095540857158</v>
+        <v>4842397.059797136</v>
       </c>
       <c r="K19">
-        <v>3543.554667184385</v>
+        <v>3987475.151699279</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1110,22 +1110,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>55.06775443946661</v>
+        <v>1116435.294169731</v>
       </c>
       <c r="G20">
-        <v>77.52158883883109</v>
+        <v>4841310.271329063</v>
       </c>
       <c r="H20">
-        <v>1537.374176741639</v>
+        <v>3985930.452852433</v>
       </c>
       <c r="I20">
-        <v>-579.0021014464655</v>
+        <v>1115521.832815314</v>
       </c>
       <c r="J20">
-        <v>1203.035523746285</v>
+        <v>4842348.408200238</v>
       </c>
       <c r="K20">
-        <v>3596.370161911457</v>
+        <v>3987521.420465166</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1145,22 +1145,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>52.7318709778868</v>
+        <v>1116432.149984988</v>
       </c>
       <c r="G21">
-        <v>93.20121330904418</v>
+        <v>4841326.784162146</v>
       </c>
       <c r="H21">
-        <v>1562.927102189921</v>
+        <v>3985956.419353015</v>
       </c>
       <c r="I21">
-        <v>-547.3476062495528</v>
+        <v>1115567.716572134</v>
       </c>
       <c r="J21">
-        <v>1150.975506635413</v>
+        <v>4842299.756603341</v>
       </c>
       <c r="K21">
-        <v>3631.893556920724</v>
+        <v>3987552.54056838</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1180,22 +1180,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>50.66950665642278</v>
+        <v>1116429.373967032</v>
       </c>
       <c r="G22">
-        <v>108.8808377792573</v>
+        <v>4841343.296995227</v>
       </c>
       <c r="H22">
-        <v>1586.443404263744</v>
+        <v>3985980.31626739</v>
       </c>
       <c r="I22">
-        <v>-514.9136482300174</v>
+        <v>1115614.730174253</v>
       </c>
       <c r="J22">
-        <v>1098.91548952454</v>
+        <v>4842251.105006443</v>
       </c>
       <c r="K22">
-        <v>3650.124852212186</v>
+        <v>3987568.51200892</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1215,22 +1215,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>48.83122456290248</v>
+        <v>1116426.899571966</v>
       </c>
       <c r="G23">
-        <v>124.5604622494704</v>
+        <v>4841359.80982831</v>
       </c>
       <c r="H23">
-        <v>1608.223900915778</v>
+        <v>3986002.449282263</v>
       </c>
       <c r="I23">
-        <v>-481.6810338329452</v>
+        <v>1115662.901443072</v>
       </c>
       <c r="J23">
-        <v>1046.855472413667</v>
+        <v>4842202.453409545</v>
       </c>
       <c r="K23">
-        <v>3651.064047785842</v>
+        <v>3987569.334786788</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1250,22 +1250,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>47.179237783823</v>
+        <v>1116424.67593722</v>
       </c>
       <c r="G24">
-        <v>140.2400867196835</v>
+        <v>4841376.322661393</v>
       </c>
       <c r="H24">
-        <v>1628.507321171965</v>
+        <v>3986023.060990498</v>
       </c>
       <c r="I24">
-        <v>-447.6300968797898</v>
+        <v>1115712.25888507</v>
       </c>
       <c r="J24">
-        <v>994.7954553027944</v>
+        <v>4842153.801812647</v>
       </c>
       <c r="K24">
-        <v>3634.711143641694</v>
+        <v>3987555.008901982</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1285,22 +1285,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>45.68410643090323</v>
+        <v>1116422.663435627</v>
       </c>
       <c r="G25">
-        <v>155.9197111898965</v>
+        <v>4841392.835494475</v>
       </c>
       <c r="H25">
-        <v>1647.486297616165</v>
+        <v>3986042.347142445</v>
       </c>
       <c r="I25">
-        <v>-412.7406869304504</v>
+        <v>1115762.831708668</v>
       </c>
       <c r="J25">
-        <v>942.7354381919217</v>
+        <v>4842105.15021575</v>
       </c>
       <c r="K25">
-        <v>3601.066139779742</v>
+        <v>3987525.534354503</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1320,22 +1320,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>44.32251016091218</v>
+        <v>1116420.830677148</v>
       </c>
       <c r="G26">
-        <v>171.5993356601096</v>
+        <v>4841409.348327558</v>
       </c>
       <c r="H26">
-        <v>1665.318519859815</v>
+        <v>3986060.467979928</v>
       </c>
       <c r="I26">
-        <v>-376.9921573587771</v>
+        <v>1115814.649841522</v>
       </c>
       <c r="J26">
-        <v>890.675421081049</v>
+        <v>4842056.498618852</v>
       </c>
       <c r="K26">
-        <v>3550.129036199984</v>
+        <v>3987480.911144351</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1355,22 +1355,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>43.07570585988556</v>
+        <v>1116419.152432867</v>
       </c>
       <c r="G27">
-        <v>187.2789601303227</v>
+        <v>4841425.861160639</v>
       </c>
       <c r="H27">
-        <v>1682.134706210584</v>
+        <v>3986077.556336936</v>
       </c>
       <c r="I27">
-        <v>-340.3633531344457</v>
+        <v>1115867.743948225</v>
       </c>
       <c r="J27">
-        <v>838.6154039701761</v>
+        <v>4842007.847021954</v>
       </c>
       <c r="K27">
-        <v>3481.899832902421</v>
+        <v>3987421.139271526</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1390,22 +1390,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>41.92843482641675</v>
+        <v>1116417.608164012</v>
       </c>
       <c r="G28">
-        <v>202.9585846005358</v>
+        <v>4841442.373993722</v>
       </c>
       <c r="H28">
-        <v>1698.044424220915</v>
+        <v>3986093.723554377</v>
       </c>
       <c r="I28">
-        <v>-302.8325983039722</v>
+        <v>1115922.14544846</v>
       </c>
       <c r="J28">
-        <v>786.5553868593036</v>
+        <v>4841959.195425056</v>
       </c>
       <c r="K28">
-        <v>3396.378529887053</v>
+        <v>3987346.218736028</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1425,22 +1425,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>40.86813254166628</v>
+        <v>1116416.180958279</v>
       </c>
       <c r="G29">
-        <v>218.6382090707489</v>
+        <v>4841458.886826805</v>
       </c>
       <c r="H29">
-        <v>1713.1404211562</v>
+        <v>3986109.063880634</v>
       </c>
       <c r="I29">
-        <v>-264.3776831634592</v>
+        <v>1115977.88653559</v>
       </c>
       <c r="J29">
-        <v>734.4953697484307</v>
+        <v>4841910.543828159</v>
       </c>
       <c r="K29">
-        <v>3293.56512715388</v>
+        <v>3987256.149537858</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1460,22 +1460,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>39.8843468248681</v>
+        <v>1116414.856746651</v>
       </c>
       <c r="G30">
-        <v>234.3178335409619</v>
+        <v>4841475.399659886</v>
       </c>
       <c r="H30">
-        <v>1727.5018999309</v>
+        <v>3986123.657800524</v>
       </c>
       <c r="I30">
-        <v>-224.9758511154845</v>
+        <v>1116035.00019571</v>
       </c>
       <c r="J30">
-        <v>682.4353526375579</v>
+        <v>4841861.892231261</v>
       </c>
       <c r="K30">
-        <v>3173.459624702901</v>
+        <v>3987150.931677014</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1495,22 +1495,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>38.96830244317141</v>
+        <v>1116413.623717343</v>
       </c>
       <c r="G31">
-        <v>249.9974580111751</v>
+        <v>4841491.912492969</v>
       </c>
       <c r="H31">
-        <v>1741.197034406847</v>
+        <v>3986137.574591307</v>
       </c>
       <c r="I31">
-        <v>-184.6037852023492</v>
+        <v>1116093.520227166</v>
       </c>
       <c r="J31">
-        <v>630.3753355266853</v>
+        <v>4841813.240634363</v>
       </c>
       <c r="K31">
-        <v>3036.062022534119</v>
+        <v>3987030.565153497</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1530,22 +1530,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>38.11257054099006</v>
+        <v>1116412.471870842</v>
       </c>
       <c r="G32">
-        <v>265.6770824813881</v>
+        <v>4841508.425326051</v>
       </c>
       <c r="H32">
-        <v>1754.28492661622</v>
+        <v>3986150.874311582</v>
       </c>
       <c r="I32">
-        <v>-143.2375943077227</v>
+        <v>1116153.48126056</v>
       </c>
       <c r="J32">
-        <v>578.3153184158125</v>
+        <v>4841764.589037466</v>
       </c>
       <c r="K32">
-        <v>2881.372320647531</v>
+        <v>3986895.049967307</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1565,22 +1565,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>37.31081433163214</v>
+        <v>1116411.392677602</v>
       </c>
       <c r="G33">
-        <v>281.3567069516012</v>
+        <v>4841524.938159133</v>
       </c>
       <c r="H33">
-        <v>1766.817148203063</v>
+        <v>3986163.609367683</v>
       </c>
       <c r="I33">
-        <v>-100.8527990185135</v>
+        <v>1116214.918779238</v>
       </c>
       <c r="J33">
-        <v>526.2553013049398</v>
+        <v>4841715.937440568</v>
       </c>
       <c r="K33">
-        <v>2709.390519043139</v>
+        <v>3986744.386118443</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1600,22 +1600,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>36.55759110563093</v>
+        <v>1116410.378811536</v>
       </c>
       <c r="G34">
-        <v>297.0363314218143</v>
+        <v>4841541.450992216</v>
       </c>
       <c r="H34">
-        <v>1778.838967769165</v>
+        <v>3986175.825760886</v>
       </c>
       <c r="I34">
-        <v>-57.42431713860414</v>
+        <v>1116277.869140292</v>
       </c>
       <c r="J34">
-        <v>474.1952841940671</v>
+        <v>4841667.28584367</v>
       </c>
       <c r="K34">
-        <v>2520.116617720941</v>
+        <v>3986578.573606907</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1635,22 +1635,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>35.84819639380184</v>
+        <v>1116409.423940257</v>
       </c>
       <c r="G35">
-        <v>312.7159558920274</v>
+        <v>4841557.963825298</v>
       </c>
       <c r="H35">
-        <v>1790.390337929228</v>
+        <v>3986187.56409044</v>
       </c>
       <c r="I35">
-        <v>-12.92644884587295</v>
+        <v>1116342.369596073</v>
       </c>
       <c r="J35">
-        <v>422.1352670831943</v>
+        <v>4841618.634246772</v>
       </c>
       <c r="K35">
-        <v>2313.550616680937</v>
+        <v>3986397.612432697</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1670,22 +1670,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>35.17854007751294</v>
+        <v>1116408.522558314</v>
       </c>
       <c r="G36">
-        <v>328.3955803622405</v>
+        <v>4841574.476658381</v>
       </c>
       <c r="H36">
-        <v>1801.506696407698</v>
+        <v>3986198.860367631</v>
       </c>
       <c r="I36">
-        <v>32.6671385162787</v>
+        <v>1116408.458316239</v>
       </c>
       <c r="J36">
-        <v>370.0752499723217</v>
+        <v>4841569.982649875</v>
       </c>
       <c r="K36">
-        <v>2089.69251592313</v>
+        <v>3986201.502595815</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1705,22 +1705,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>34.54504698709956</v>
+        <v>1116407.669853399</v>
       </c>
       <c r="G37">
-        <v>344.0752048324536</v>
+        <v>4841590.989491463</v>
       </c>
       <c r="H37">
-        <v>1812.219621695955</v>
+        <v>3986209.746682049</v>
       </c>
       <c r="I37">
-        <v>79.38342602189201</v>
+        <v>1116476.174410338</v>
       </c>
       <c r="J37">
-        <v>318.0152328614489</v>
+        <v>4841521.331052978</v>
       </c>
       <c r="K37">
-        <v>1848.542315447517</v>
+        <v>3985990.24409626</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1740,22 +1740,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>33.94457646844563</v>
+        <v>1116406.861598075</v>
       </c>
       <c r="G38">
-        <v>359.7548293026667</v>
+        <v>4841607.502324545</v>
       </c>
       <c r="H38">
-        <v>1822.557373848365</v>
+        <v>3986220.251751139</v>
       </c>
       <c r="I38">
-        <v>127.250059129135</v>
+        <v>1116545.557950957</v>
       </c>
       <c r="J38">
-        <v>265.9552157505763</v>
+        <v>4841472.67945608</v>
       </c>
       <c r="K38">
-        <v>1590.1000152541</v>
+        <v>3985763.836934031</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1775,22 +1775,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>33.37435678487545</v>
+        <v>1116406.094061484</v>
       </c>
       <c r="G39">
-        <v>375.4344537728798</v>
+        <v>4841624.015157628</v>
       </c>
       <c r="H39">
-        <v>1832.54534374836</v>
+        <v>3986230.401376736</v>
       </c>
       <c r="I39">
-        <v>176.2953640401484</v>
+        <v>1116616.649997432</v>
       </c>
       <c r="J39">
-        <v>213.8951986397034</v>
+        <v>4841424.027859181</v>
       </c>
       <c r="K39">
-        <v>1314.365615342876</v>
+        <v>3985522.28110913</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1810,22 +1810,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>32.83193122650079</v>
+        <v>1116405.363936804</v>
       </c>
       <c r="G40">
-        <v>391.1140782430928</v>
+        <v>4841640.52799071</v>
       </c>
       <c r="H40">
-        <v>1842.206428827253</v>
+        <v>3986240.218826869</v>
       </c>
       <c r="I40">
-        <v>226.5483644637428</v>
+        <v>1116689.492620148</v>
       </c>
       <c r="J40">
-        <v>161.8351815288306</v>
+        <v>4841375.376262284</v>
       </c>
       <c r="K40">
-        <v>1021.339115713849</v>
+        <v>3985265.576621555</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1845,22 +1845,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>32.31511353597177</v>
+        <v>1116404.668281252</v>
       </c>
       <c r="G41">
-        <v>406.7937027133059</v>
+        <v>4841657.040823792</v>
       </c>
       <c r="H41">
-        <v>1851.561349227026</v>
+        <v>3986249.725157034</v>
       </c>
       <c r="I41">
-        <v>278.0387987908548</v>
+        <v>1116764.128925434</v>
       </c>
       <c r="J41">
-        <v>109.775164417958</v>
+        <v>4841326.724665387</v>
       </c>
       <c r="K41">
-        <v>711.0205163670164</v>
+        <v>3984993.723471307</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1880,22 +1880,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>31.82195080572679</v>
+        <v>1116404.004466144</v>
       </c>
       <c r="G42">
-        <v>422.473327183519</v>
+        <v>4841673.553656874</v>
       </c>
       <c r="H42">
-        <v>1860.62891538826</v>
+        <v>3986258.939482121</v>
       </c>
       <c r="I42">
-        <v>330.797137692942</v>
+        <v>1116840.603081074</v>
       </c>
       <c r="J42">
-        <v>57.7151473070852</v>
+        <v>4841278.073068489</v>
       </c>
       <c r="K42">
-        <v>383.4098173023783</v>
+        <v>3984706.721658386</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1915,22 +1915,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>31.35069241081315</v>
+        <v>1116403.370135074</v>
       </c>
       <c r="G43">
-        <v>438.1529516537321</v>
+        <v>4841690.066489957</v>
       </c>
       <c r="H43">
-        <v>1869.426255752456</v>
+        <v>3986267.879207795</v>
       </c>
       <c r="I43">
-        <v>384.8546021537109</v>
+        <v>1116918.960342442</v>
       </c>
       <c r="J43">
-        <v>5.655130196212368</v>
+        <v>4841229.421471591</v>
       </c>
       <c r="K43">
-        <v>38.50701851993537</v>
+        <v>3984404.571182793</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1950,22 +1950,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>30.89976385055529</v>
+        <v>1116402.763168707</v>
       </c>
       <c r="G44">
-        <v>453.8325761239452</v>
+        <v>4841706.579323038</v>
       </c>
       <c r="H44">
-        <v>1877.969011506939</v>
+        <v>3986276.560228398</v>
       </c>
       <c r="I44">
-        <v>440.2431819448703</v>
+        <v>1116999.247079283</v>
       </c>
       <c r="J44">
-        <v>-46.40488691466022</v>
+        <v>4841180.769874693</v>
       </c>
       <c r="K44">
-        <v>-323.6878799803115</v>
+        <v>3984087.272044526</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1985,22 +1985,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>30.46774460821442</v>
+        <v>1116402.181654974</v>
       </c>
       <c r="G45">
-        <v>469.5122005941582</v>
+        <v>4841723.092156122</v>
       </c>
       <c r="H45">
-        <v>1886.271503935928</v>
+        <v>3986284.997097003</v>
       </c>
       <c r="I45">
-        <v>496.9956545568284</v>
+        <v>1117081.510803157</v>
       </c>
       <c r="J45">
-        <v>-98.46490402553304</v>
+        <v>4841132.118277796</v>
       </c>
       <c r="K45">
-        <v>-703.1748781983644</v>
+        <v>3983754.824243586</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2020,22 +2020,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>30.0533493192202</v>
+        <v>1116401.623863729</v>
       </c>
       <c r="G46">
-        <v>485.1918250643714</v>
+        <v>4841739.604989204</v>
       </c>
       <c r="H46">
-        <v>1894.346878875573</v>
+        <v>3986293.203172213</v>
       </c>
       <c r="I46">
-        <v>555.1456045955388</v>
+        <v>1117165.80019555</v>
       </c>
       <c r="J46">
-        <v>-150.5249211364059</v>
+        <v>4841083.466680897</v>
       </c>
       <c r="K46">
-        <v>-1099.953976134223</v>
+        <v>3983407.227779973</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2055,22 +2055,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>29.65541167923228</v>
+        <v>1116401.088225082</v>
       </c>
       <c r="G47">
-        <v>500.8714495345845</v>
+        <v>4841756.117822286</v>
       </c>
       <c r="H47">
-        <v>1902.207231932037</v>
+        <v>3986301.190745403</v>
       </c>
       <c r="I47">
-        <v>614.7274436569793</v>
+        <v>1117252.165136685</v>
       </c>
       <c r="J47">
-        <v>-202.5849382472787</v>
+        <v>4841034.815084</v>
       </c>
       <c r="K47">
-        <v>-1514.025173787886</v>
+        <v>3983044.482653687</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2090,22 +2090,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>29.27287063316693</v>
+        <v>1116400.573310815</v>
       </c>
       <c r="G48">
-        <v>516.5510740047976</v>
+        <v>4841772.630655369</v>
       </c>
       <c r="H48">
-        <v>1909.863717457198</v>
+        <v>3986308.971151456</v>
       </c>
       <c r="I48">
-        <v>675.7764306910206</v>
+        <v>1117340.656735042</v>
       </c>
       <c r="J48">
-        <v>-254.644955358151</v>
+        <v>4840986.163487103</v>
       </c>
       <c r="K48">
-        <v>-1945.388471159351</v>
+        <v>3982666.588864727</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2125,22 +2125,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>28.90475847275593</v>
+        <v>1116400.077818357</v>
       </c>
       <c r="G49">
-        <v>532.2306984750106</v>
+        <v>4841789.14348845</v>
       </c>
       <c r="H49">
-        <v>1917.32664374635</v>
+        <v>3986316.554865509</v>
       </c>
       <c r="I49">
-        <v>738.3286928667376</v>
+        <v>1117431.327357598</v>
       </c>
       <c r="J49">
-        <v>-306.7049724690239</v>
+        <v>4840937.511890205</v>
       </c>
       <c r="K49">
-        <v>-2394.043868248624</v>
+        <v>3982273.546413096</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2160,22 +2160,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>28.55019053863797</v>
+        <v>1116399.600556924</v>
       </c>
       <c r="G50">
-        <v>547.9103229452237</v>
+        <v>4841805.656321533</v>
       </c>
       <c r="H50">
-        <v>1924.605556496848</v>
+        <v>3986323.951587758</v>
       </c>
       <c r="I50">
-        <v>802.4212469515052</v>
+        <v>1117524.230660818</v>
       </c>
       <c r="J50">
-        <v>-358.7649895798967</v>
+        <v>4840888.860293306</v>
       </c>
       <c r="K50">
-        <v>-2859.991365055702</v>
+        <v>3981865.35529879</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2195,22 +2195,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>28.20835627750948</v>
+        <v>1116399.140435481</v>
       </c>
       <c r="G51">
-        <v>563.5899474154368</v>
+        <v>4841822.169154616</v>
       </c>
       <c r="H51">
-        <v>1931.709312223049</v>
+        <v>3986331.170318058</v>
       </c>
       <c r="I51">
-        <v>868.0920212165415</v>
+        <v>1117619.421622411</v>
       </c>
       <c r="J51">
-        <v>-410.8250066907695</v>
+        <v>4840840.208696409</v>
       </c>
       <c r="K51">
-        <v>-3343.230961580586</v>
+        <v>3981442.015521812</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2230,22 +2230,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>27.87851144856629</v>
+        <v>1116398.696452253</v>
       </c>
       <c r="G52">
-        <v>579.26957188565</v>
+        <v>4841838.681987697</v>
       </c>
       <c r="H52">
-        <v>1938.64614304395</v>
+        <v>3986338.219421767</v>
       </c>
       <c r="I52">
-        <v>935.3798778818508</v>
+        <v>1117716.956573859</v>
       </c>
       <c r="J52">
-        <v>-462.8850238016423</v>
+        <v>4840791.557099512</v>
       </c>
       <c r="K52">
-        <v>-3843.762657823273</v>
+        <v>3981003.52708216</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2265,22 +2265,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>27.55997130869028</v>
+        <v>1116398.267685551</v>
       </c>
       <c r="G53">
-        <v>594.949196355863</v>
+        <v>4841855.19482078</v>
       </c>
       <c r="H53">
-        <v>1945.423714032249</v>
+        <v>3986345.106688016</v>
       </c>
       <c r="I53">
-        <v>1004.324636113849</v>
+        <v>1117816.893233756</v>
       </c>
       <c r="J53">
-        <v>-514.9450409125146</v>
+        <v>4840742.905502615</v>
       </c>
       <c r="K53">
-        <v>-4361.586453783762</v>
+        <v>3980549.889979836</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2300,22 +2300,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>27.25210463438239</v>
+        <v>1116397.853285725</v>
       </c>
       <c r="G54">
-        <v>610.628820826076</v>
+        <v>4841871.707653862</v>
       </c>
       <c r="H54">
-        <v>1952.049174126724</v>
+        <v>3986351.839381451</v>
       </c>
       <c r="I54">
-        <v>1074.967095589296</v>
+        <v>1117919.290741963</v>
       </c>
       <c r="J54">
-        <v>-567.0050580233875</v>
+        <v>4840694.253905716</v>
       </c>
       <c r="K54">
-        <v>-4896.702349462061</v>
+        <v>3980081.104214839</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2335,22 +2335,22 @@
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>202.395049358862</v>
+        <v>1116578.290858916</v>
       </c>
       <c r="G55">
-        <v>-163.6180027422135</v>
+        <v>4841125.361616446</v>
       </c>
       <c r="H55">
-        <v>1013.59971875191</v>
+        <v>3985233.159270328</v>
       </c>
       <c r="I55">
-        <v>-1892.998013002203</v>
+        <v>1114862.103959965</v>
       </c>
       <c r="J55">
-        <v>2011.884582903753</v>
+        <v>4843215.773681943</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984367.558594479</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2370,22 +2370,22 @@
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>202.395049358862</v>
+        <v>1116578.290858916</v>
       </c>
       <c r="G56">
-        <v>-163.6180027422135</v>
+        <v>4841125.361616446</v>
       </c>
       <c r="H56">
-        <v>1013.59971875191</v>
+        <v>3985233.159270328</v>
       </c>
       <c r="I56">
-        <v>-1855.62519166909</v>
+        <v>1114891.717976259</v>
       </c>
       <c r="J56">
-        <v>1962.943892751568</v>
+        <v>4843167.122169057</v>
       </c>
       <c r="K56">
-        <v>393.7915027695965</v>
+        <v>3984671.354375817</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2405,22 +2405,22 @@
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>202.395049358862</v>
+        <v>1116578.290858916</v>
       </c>
       <c r="G57">
-        <v>-163.6180027422135</v>
+        <v>4841125.361616446</v>
       </c>
       <c r="H57">
-        <v>1013.59971875191</v>
+        <v>3985233.159270328</v>
       </c>
       <c r="I57">
-        <v>-1817.332098993015</v>
+        <v>1114922.06121046</v>
       </c>
       <c r="J57">
-        <v>1914.003202599383</v>
+        <v>4843118.470656171</v>
       </c>
       <c r="K57">
-        <v>767.9467561356541</v>
+        <v>3984960.001506948</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2440,22 +2440,22 @@
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>202.395049358862</v>
+        <v>1116578.290858916</v>
       </c>
       <c r="G58">
-        <v>-163.6180027422135</v>
+        <v>4841125.361616446</v>
       </c>
       <c r="H58">
-        <v>1013.59971875191</v>
+        <v>3985233.159270328</v>
       </c>
       <c r="I58">
-        <v>-1778.09607413879</v>
+        <v>1114953.151618887</v>
       </c>
       <c r="J58">
-        <v>1865.062512447198</v>
+        <v>4843069.819143284</v>
       </c>
       <c r="K58">
-        <v>1122.465760098176</v>
+        <v>3985233.499987871</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2475,22 +2475,22 @@
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>202.395049358862</v>
+        <v>1116578.290858916</v>
       </c>
       <c r="G59">
-        <v>-163.6180027422135</v>
+        <v>4841125.361616446</v>
       </c>
       <c r="H59">
-        <v>1013.59971875191</v>
+        <v>3985233.159270328</v>
       </c>
       <c r="I59">
-        <v>-1737.893898269011</v>
+        <v>1114985.00760002</v>
       </c>
       <c r="J59">
-        <v>1816.121822295013</v>
+        <v>4843021.167630399</v>
       </c>
       <c r="K59">
-        <v>1457.348514657159</v>
+        <v>3985491.849818588</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2510,22 +2510,22 @@
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>202.395049358862</v>
+        <v>1116578.290858916</v>
       </c>
       <c r="G60">
-        <v>-163.6180027422135</v>
+        <v>4841125.361616446</v>
       </c>
       <c r="H60">
-        <v>1013.59971875191</v>
+        <v>3985233.159270328</v>
       </c>
       <c r="I60">
-        <v>-1696.701780803762</v>
+        <v>1115017.648005381</v>
       </c>
       <c r="J60">
-        <v>1767.181132142828</v>
+        <v>4842972.516117512</v>
       </c>
       <c r="K60">
-        <v>1772.595019812606</v>
+        <v>3985735.050999097</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2545,22 +2545,22 @@
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>202.395049358862</v>
+        <v>1116578.290858916</v>
       </c>
       <c r="G61">
-        <v>-163.6180027422135</v>
+        <v>4841125.361616446</v>
       </c>
       <c r="H61">
-        <v>1013.59971875191</v>
+        <v>3985233.159270328</v>
       </c>
       <c r="I61">
-        <v>-1654.495345341985</v>
+        <v>1115051.092150696</v>
       </c>
       <c r="J61">
-        <v>1718.240441990643</v>
+        <v>4842923.864604625</v>
       </c>
       <c r="K61">
-        <v>2068.205275564516</v>
+        <v>3985963.103529397</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2580,22 +2580,22 @@
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>202.395049358862</v>
+        <v>1116578.290858916</v>
       </c>
       <c r="G62">
-        <v>-163.6180027422135</v>
+        <v>4841125.361616446</v>
       </c>
       <c r="H62">
-        <v>1013.59971875191</v>
+        <v>3985233.159270328</v>
       </c>
       <c r="I62">
-        <v>-1611.24961523617</v>
+        <v>1115085.35982732</v>
       </c>
       <c r="J62">
-        <v>1669.299751838458</v>
+        <v>4842875.213091739</v>
       </c>
       <c r="K62">
-        <v>2344.179281912889</v>
+        <v>3986176.007409492</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2615,22 +2615,22 @@
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>202.395049358862</v>
+        <v>1116578.290858916</v>
       </c>
       <c r="G63">
-        <v>-136.6000649456932</v>
+        <v>4841141.87443838</v>
       </c>
       <c r="H63">
-        <v>1013.59971875191</v>
+        <v>3985233.159270328</v>
       </c>
       <c r="I63">
-        <v>-1566.938998811842</v>
+        <v>1115120.471313956</v>
       </c>
       <c r="J63">
-        <v>1620.359061686273</v>
+        <v>4842826.561578853</v>
       </c>
       <c r="K63">
-        <v>2600.517038857723</v>
+        <v>3986373.762639378</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2650,22 +2650,22 @@
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>157.0821689921843</v>
+        <v>1116529.610304432</v>
       </c>
       <c r="G64">
-        <v>-109.5821271491729</v>
+        <v>4841158.387260312</v>
       </c>
       <c r="H64">
-        <v>1248.748032933271</v>
+        <v>3985432.41391864</v>
       </c>
       <c r="I64">
-        <v>-1521.537274223084</v>
+        <v>1115156.447388649</v>
       </c>
       <c r="J64">
-        <v>1571.418371534089</v>
+        <v>4842777.910065967</v>
       </c>
       <c r="K64">
-        <v>2837.218546399019</v>
+        <v>3986556.369219057</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2685,22 +2685,22 @@
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>130.4631249162217</v>
+        <v>1116501.012920753</v>
       </c>
       <c r="G65">
-        <v>-82.56418935265258</v>
+        <v>4841174.900082246</v>
       </c>
       <c r="H65">
-        <v>1388.814394801032</v>
+        <v>3985551.100177444</v>
       </c>
       <c r="I65">
-        <v>-1475.017573935148</v>
+        <v>1115193.309341083</v>
       </c>
       <c r="J65">
-        <v>1522.477681381904</v>
+        <v>4842729.25855308</v>
       </c>
       <c r="K65">
-        <v>3054.28380453678</v>
+        <v>3986723.827148529</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2720,22 +2720,22 @@
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>113.6592314235946</v>
+        <v>1116482.960154164</v>
       </c>
       <c r="G66">
-        <v>-55.54625155613225</v>
+        <v>4841191.41290418</v>
       </c>
       <c r="H66">
-        <v>1488.910356904427</v>
+        <v>3985635.917224913</v>
       </c>
       <c r="I66">
-        <v>-1427.352368824962</v>
+        <v>1115231.078985184</v>
       </c>
       <c r="J66">
-        <v>1473.536991229719</v>
+        <v>4842680.607040194</v>
       </c>
       <c r="K66">
-        <v>3251.712813271004</v>
+        <v>3986876.136427793</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2755,22 +2755,22 @@
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>101.9402643128447</v>
+        <v>1116470.370228026</v>
       </c>
       <c r="G67">
-        <v>-28.52831375961192</v>
+        <v>4841207.925726113</v>
       </c>
       <c r="H67">
-        <v>1566.855028967891</v>
+        <v>3985701.964214337</v>
       </c>
       <c r="I67">
-        <v>-1378.513451890122</v>
+        <v>1115269.778672023</v>
       </c>
       <c r="J67">
-        <v>1424.596301077534</v>
+        <v>4842631.955527308</v>
       </c>
       <c r="K67">
-        <v>3429.50557260169</v>
+        <v>3987013.29705685</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2790,22 +2790,22 @@
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>93.1975639052019</v>
+        <v>1116460.977766102</v>
       </c>
       <c r="G68">
-        <v>-1.51037596309162</v>
+        <v>4841224.438548047</v>
       </c>
       <c r="H68">
-        <v>1630.697761327729</v>
+        <v>3985756.061821747</v>
       </c>
       <c r="I68">
-        <v>-1328.471921556741</v>
+        <v>1115309.431303047</v>
       </c>
       <c r="J68">
-        <v>1375.655610925349</v>
+        <v>4842583.304014422</v>
       </c>
       <c r="K68">
-        <v>3587.662082528838</v>
+        <v>3987135.309035699</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2825,22 +2825,22 @@
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>86.36199306834189</v>
+        <v>1116453.634172495</v>
       </c>
       <c r="G69">
-        <v>25.50756183342871</v>
+        <v>4841240.951369979</v>
       </c>
       <c r="H69">
-        <v>1684.767895342925</v>
+        <v>3985801.878546289</v>
       </c>
       <c r="I69">
-        <v>-1277.198164576264</v>
+        <v>1115350.060343631</v>
       </c>
       <c r="J69">
-        <v>1326.714920773164</v>
+        <v>4842534.652501535</v>
       </c>
       <c r="K69">
-        <v>3726.18234305245</v>
+        <v>3987242.172364342</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2860,22 +2860,22 @@
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>80.83151854708946</v>
+        <v>1116447.692670563</v>
       </c>
       <c r="G70">
-        <v>52.52549962994903</v>
+        <v>4841257.464191914</v>
       </c>
       <c r="H70">
-        <v>1731.663888962114</v>
+        <v>3985841.61621036</v>
       </c>
       <c r="I70">
-        <v>-1224.661838501135</v>
+        <v>1115391.689836961</v>
       </c>
       <c r="J70">
-        <v>1277.774230620979</v>
+        <v>4842486.000988649</v>
       </c>
       <c r="K70">
-        <v>3845.066354172523</v>
+        <v>3987333.887042776</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2895,22 +2895,22 @@
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>76.23925407598173</v>
+        <v>1116442.759106884</v>
       </c>
       <c r="G71">
-        <v>79.54343742646932</v>
+        <v>4841273.977013848</v>
       </c>
       <c r="H71">
-        <v>1773.068410795846</v>
+        <v>3985876.700635545</v>
       </c>
       <c r="I71">
-        <v>-1170.831853728939</v>
+        <v>1115434.344418266</v>
       </c>
       <c r="J71">
-        <v>1228.833540468794</v>
+        <v>4842437.349475763</v>
       </c>
       <c r="K71">
-        <v>3944.314115889061</v>
+        <v>3987410.453071004</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2930,22 +2930,22 @@
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>72.34765546168768</v>
+        <v>1116438.57828287</v>
       </c>
       <c r="G72">
-        <v>106.5613752229897</v>
+        <v>4841290.48983578</v>
       </c>
       <c r="H72">
-        <v>1810.133789622541</v>
+        <v>3985908.108256087</v>
       </c>
       <c r="I72">
-        <v>-1115.676355104406</v>
+        <v>1115478.049329394</v>
       </c>
       <c r="J72">
-        <v>1179.892850316609</v>
+        <v>4842388.697962876</v>
       </c>
       <c r="K72">
-        <v>4023.92562820206</v>
+        <v>3987471.870449024</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2965,22 +2965,22 @@
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>68.99542292125965</v>
+        <v>1116434.976910864</v>
       </c>
       <c r="G73">
-        <v>133.57931301951</v>
+        <v>4841307.002657714</v>
       </c>
       <c r="H73">
-        <v>1843.683844277514</v>
+        <v>3985936.537140913</v>
       </c>
       <c r="I73">
-        <v>-1059.162703068372</v>
+        <v>1115522.830433751</v>
       </c>
       <c r="J73">
-        <v>1130.952160164425</v>
+        <v>4842340.04644999</v>
       </c>
       <c r="K73">
-        <v>4083.900891111522</v>
+        <v>3987518.139176836</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3000,22 +3000,22 @@
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>66.06875069779652</v>
+        <v>1116431.832727015</v>
       </c>
       <c r="G74">
-        <v>160.5972508160303</v>
+        <v>4841323.515479648</v>
       </c>
       <c r="H74">
-        <v>1874.327988387489</v>
+        <v>3985962.503681132</v>
       </c>
       <c r="I74">
-        <v>-1001.257454342557</v>
+        <v>1115568.714231605</v>
       </c>
       <c r="J74">
-        <v>1082.01147001224</v>
+        <v>4842291.394937104</v>
       </c>
       <c r="K74">
-        <v>4124.239904617447</v>
+        <v>3987549.259254442</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3035,22 +3035,22 @@
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>63.4847757377581</v>
+        <v>1116429.056709847</v>
       </c>
       <c r="G75">
-        <v>187.6151886125506</v>
+        <v>4841340.028301581</v>
       </c>
       <c r="H75">
-        <v>1902.529727994271</v>
+        <v>3985986.400631985</v>
       </c>
       <c r="I75">
-        <v>-941.926342138721</v>
+        <v>1115615.727875768</v>
       </c>
       <c r="J75">
-        <v>1033.070779860055</v>
+        <v>4842242.743424218</v>
       </c>
       <c r="K75">
-        <v>4144.942668719835</v>
+        <v>3987565.230681839</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3070,22 +3070,22 @@
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>61.18155760616652</v>
+        <v>1116426.582315484</v>
       </c>
       <c r="G76">
-        <v>214.6331264090709</v>
+        <v>4841356.541123515</v>
       </c>
       <c r="H76">
-        <v>1928.649816652715</v>
+        <v>3986008.533680642</v>
       </c>
       <c r="I76">
-        <v>-881.1342558804878</v>
+        <v>1115663.899187668</v>
       </c>
       <c r="J76">
-        <v>984.1300897078698</v>
+        <v>4842194.091911332</v>
       </c>
       <c r="K76">
-        <v>4146.009183418685</v>
+        <v>3987566.05345903</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3105,22 +3105,22 @@
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>59.11175236999676</v>
+        <v>1116424.358681371</v>
       </c>
       <c r="G77">
-        <v>241.6510642055913</v>
+        <v>4841373.053945448</v>
       </c>
       <c r="H77">
-        <v>1952.97454826248</v>
+        <v>3986029.14542034</v>
       </c>
       <c r="I77">
-        <v>-818.8452204258396</v>
+        <v>1115713.256673806</v>
       </c>
       <c r="J77">
-        <v>935.1893995556849</v>
+        <v>4842145.440398444</v>
       </c>
       <c r="K77">
-        <v>4127.439448713998</v>
+        <v>3987551.727586012</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3140,22 +3140,22 @@
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>57.2384742407618</v>
+        <v>1116422.346180349</v>
       </c>
       <c r="G78">
-        <v>268.6690020021116</v>
+        <v>4841389.566767382</v>
       </c>
       <c r="H78">
-        <v>1975.734935928973</v>
+        <v>3986048.431601726</v>
       </c>
       <c r="I78">
-        <v>-755.0223747779819</v>
+        <v>1115763.829542632</v>
       </c>
       <c r="J78">
-        <v>886.2487094035001</v>
+        <v>4842096.788885559</v>
       </c>
       <c r="K78">
-        <v>4089.233464605774</v>
+        <v>3987522.253062788</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3175,22 +3175,22 @@
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>55.53250472280534</v>
+        <v>1116420.513422391</v>
       </c>
       <c r="G79">
-        <v>295.686939798632</v>
+        <v>4841406.079589315</v>
       </c>
       <c r="H79">
-        <v>1997.12008767379</v>
+        <v>3986066.552466869</v>
       </c>
       <c r="I79">
-        <v>-689.6279502719874</v>
+        <v>1115815.647721827</v>
       </c>
       <c r="J79">
-        <v>837.3080192513152</v>
+        <v>4842048.137372673</v>
       </c>
       <c r="K79">
-        <v>4031.391231094013</v>
+        <v>3987477.629889356</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3210,22 +3210,22 @@
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>53.97036021691415</v>
+        <v>1116418.835178587</v>
       </c>
       <c r="G80">
-        <v>322.7048775951522</v>
+        <v>4841422.592411248</v>
       </c>
       <c r="H80">
-        <v>2017.286766395416</v>
+        <v>3986083.640849961</v>
       </c>
       <c r="I80">
-        <v>-622.6232482243004</v>
+        <v>1115868.741876012</v>
       </c>
       <c r="J80">
-        <v>788.3673290991302</v>
+        <v>4841999.485859785</v>
       </c>
       <c r="K80">
-        <v>3953.912748178714</v>
+        <v>3987417.858065717</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3245,22 +3245,22 @@
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>52.53292280975596</v>
+        <v>1116417.290910171</v>
       </c>
       <c r="G81">
-        <v>349.7228153916726</v>
+        <v>4841439.105233182</v>
       </c>
       <c r="H81">
-        <v>2036.36637011611</v>
+        <v>3986099.808092081</v>
       </c>
       <c r="I81">
-        <v>-553.9686170318849</v>
+        <v>1115923.143424899</v>
       </c>
       <c r="J81">
-        <v>739.4266389469454</v>
+        <v>4841950.8343469</v>
       </c>
       <c r="K81">
-        <v>3856.798015859878</v>
+        <v>3987342.93759187</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3280,22 +3280,22 @@
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>51.20445017989498</v>
+        <v>1116415.863704843</v>
       </c>
       <c r="G82">
-        <v>376.7407531881929</v>
+        <v>4841455.618055115</v>
       </c>
       <c r="H82">
-        <v>2054.470125261676</v>
+        <v>3986115.148441754</v>
       </c>
       <c r="I82">
-        <v>-483.6234287074579</v>
+        <v>1115978.884561879</v>
       </c>
       <c r="J82">
-        <v>690.4859487947605</v>
+        <v>4841902.182834013</v>
       </c>
       <c r="K82">
-        <v>3740.047034137505</v>
+        <v>3987252.868467817</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3315,22 +3315,22 @@
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>49.97184659390713</v>
+        <v>1116414.539493592</v>
       </c>
       <c r="G83">
-        <v>403.7586909847132</v>
+        <v>4841472.130877049</v>
       </c>
       <c r="H83">
-        <v>2071.693015301997</v>
+        <v>3986129.742383922</v>
       </c>
       <c r="I83">
-        <v>-411.5460548369288</v>
+        <v>1116035.998273076</v>
       </c>
       <c r="J83">
-        <v>641.5452586425755</v>
+        <v>4841853.531321128</v>
       </c>
       <c r="K83">
-        <v>3603.659803011594</v>
+        <v>3987147.650693555</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3350,22 +3350,22 @@
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>48.82411739788039</v>
+        <v>1116413.306464634</v>
       </c>
       <c r="G84">
-        <v>430.7766287812335</v>
+        <v>4841488.643698983</v>
       </c>
       <c r="H84">
-        <v>2088.116797202657</v>
+        <v>3986143.659195947</v>
       </c>
       <c r="I84">
-        <v>-337.6938419448061</v>
+        <v>1116094.518356867</v>
       </c>
       <c r="J84">
-        <v>592.6045684903908</v>
+        <v>4841804.879808241</v>
       </c>
       <c r="K84">
-        <v>3447.636322482148</v>
+        <v>3987027.284269087</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3385,22 +3385,22 @@
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>47.75195483924333</v>
+        <v>1116412.154618461</v>
       </c>
       <c r="G85">
-        <v>457.7945665777538</v>
+        <v>4841505.156520916</v>
       </c>
       <c r="H85">
-        <v>2103.812348609152</v>
+        <v>3986156.958936524</v>
       </c>
       <c r="I85">
-        <v>-262.023086253005</v>
+        <v>1116154.479443884</v>
       </c>
       <c r="J85">
-        <v>543.6638783382058</v>
+        <v>4841756.228295354</v>
       </c>
       <c r="K85">
-        <v>3271.976592549162</v>
+        <v>3986891.76919441</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3420,22 +3420,22 @@
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>46.7474194390355</v>
+        <v>1116411.075425527</v>
       </c>
       <c r="G86">
-        <v>484.8125043742741</v>
+        <v>4841521.669342849</v>
       </c>
       <c r="H86">
-        <v>2118.841516408457</v>
+        <v>3986169.694012064</v>
       </c>
       <c r="I86">
-        <v>-184.4890078181115</v>
+        <v>1116215.917017506</v>
       </c>
       <c r="J86">
-        <v>494.723188186021</v>
+        <v>4841707.576782469</v>
       </c>
       <c r="K86">
-        <v>3076.68061321264</v>
+        <v>3986741.105469527</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3455,22 +3455,22 @@
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>45.80369192442991</v>
+        <v>1116410.06155975</v>
       </c>
       <c r="G87">
-        <v>511.8304421707944</v>
+        <v>4841538.182164783</v>
       </c>
       <c r="H87">
-        <v>2133.258588613883</v>
+        <v>3986181.910423914</v>
       </c>
       <c r="I87">
-        <v>-105.0457240318029</v>
+        <v>1116278.867434857</v>
       </c>
       <c r="J87">
-        <v>445.782498033836</v>
+        <v>4841658.925269582</v>
       </c>
       <c r="K87">
-        <v>2861.74838447258</v>
+        <v>3986575.293094436</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3490,22 +3490,22 @@
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>44.9148779777026</v>
+        <v>1116409.106688742</v>
       </c>
       <c r="G88">
-        <v>538.8483799673148</v>
+        <v>4841554.694986716</v>
       </c>
       <c r="H88">
-        <v>2147.111478083195</v>
+        <v>3986193.648771386</v>
       </c>
       <c r="I88">
-        <v>-23.64622246873781</v>
+        <v>1116343.367948322</v>
       </c>
       <c r="J88">
-        <v>396.8418078816511</v>
+        <v>4841610.273756695</v>
       </c>
       <c r="K88">
-        <v>2627.179906328983</v>
+        <v>3986394.332069137</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3525,22 +3525,22 @@
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>44.07585301246572</v>
+        <v>1116408.205307055</v>
       </c>
       <c r="G89">
-        <v>565.8663177638351</v>
+        <v>4841571.20780865</v>
       </c>
       <c r="H89">
-        <v>2160.442683227665</v>
+        <v>3986204.94506582</v>
       </c>
       <c r="I89">
-        <v>59.75766693414974</v>
+        <v>1116409.456727591</v>
       </c>
       <c r="J89">
-        <v>347.9011177294663</v>
+        <v>4841561.62224381</v>
       </c>
       <c r="K89">
-        <v>2372.97517878185</v>
+        <v>3986198.222393632</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3560,22 +3560,22 @@
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>43.28213763155595</v>
+        <v>1116407.352602381</v>
       </c>
       <c r="G90">
-        <v>592.8842555603554</v>
+        <v>4841587.720630583</v>
       </c>
       <c r="H90">
-        <v>2173.290074303774</v>
+        <v>3986215.831396855</v>
       </c>
       <c r="I90">
-        <v>145.215300383412</v>
+        <v>1116477.172882249</v>
       </c>
       <c r="J90">
-        <v>298.9604275772813</v>
+        <v>4841512.970730923</v>
       </c>
       <c r="K90">
-        <v>2099.134201831178</v>
+        <v>3985986.964067919</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3595,22 +3595,22 @@
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>42.52979685049473</v>
+        <v>1116406.544347287</v>
       </c>
       <c r="G91">
-        <v>619.9021933568757</v>
+        <v>4841604.233452517</v>
       </c>
       <c r="H91">
-        <v>2185.687541958616</v>
+        <v>3986226.336481981</v>
       </c>
       <c r="I91">
-        <v>232.7772494367819</v>
+        <v>1116546.556484918</v>
       </c>
       <c r="J91">
-        <v>250.0197374250966</v>
+        <v>4841464.319218038</v>
       </c>
       <c r="K91">
-        <v>1805.656975476971</v>
+        <v>3985760.557091998</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3630,22 +3630,22 @@
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>41.81535790838753</v>
+        <v>1116405.776810915</v>
       </c>
       <c r="G92">
-        <v>646.920131153396</v>
+        <v>4841620.74627445</v>
       </c>
       <c r="H92">
-        <v>2197.665536008691</v>
+        <v>3986236.486123071</v>
       </c>
       <c r="I92">
-        <v>322.4953309300741</v>
+        <v>1116617.648594971</v>
       </c>
       <c r="J92">
-        <v>201.0790472729116</v>
+        <v>4841415.66770515</v>
       </c>
       <c r="K92">
-        <v>1492.543499719224</v>
+        <v>3985519.00146587</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3665,22 +3665,22 @@
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>41.13574274731356</v>
+        <v>1116405.046686442</v>
       </c>
       <c r="G93">
-        <v>673.9380689499163</v>
+        <v>4841637.259096384</v>
       </c>
       <c r="H93">
-        <v>2209.251516017733</v>
+        <v>3986246.303588189</v>
       </c>
       <c r="I93">
-        <v>414.422637641018</v>
+        <v>1116690.491282831</v>
       </c>
       <c r="J93">
-        <v>152.1383571207266</v>
+        <v>4841367.016192264</v>
       </c>
       <c r="K93">
-        <v>1159.793774557941</v>
+        <v>3985262.297189535</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3700,22 +3700,22 @@
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>40.48821216441253</v>
+        <v>1116404.351031088</v>
       </c>
       <c r="G94">
-        <v>700.9560067464366</v>
+        <v>4841653.771918317</v>
       </c>
       <c r="H94">
-        <v>2220.470330452433</v>
+        <v>3986255.809932865</v>
       </c>
       <c r="I94">
-        <v>508.613569708146</v>
+        <v>1116765.127654865</v>
       </c>
       <c r="J94">
-        <v>103.1976669685419</v>
+        <v>4841318.364679378</v>
       </c>
       <c r="K94">
-        <v>807.4077999931209</v>
+        <v>3984990.444262992</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3735,22 +3735,22 @@
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>39.87031932515288</v>
+        <v>1116403.687216169</v>
       </c>
       <c r="G95">
-        <v>727.9739445429569</v>
+        <v>4841670.284740251</v>
       </c>
       <c r="H95">
-        <v>2231.344537585154</v>
+        <v>3986265.024272017</v>
       </c>
       <c r="I95">
-        <v>605.1238668233605</v>
+        <v>1116841.601878896</v>
       </c>
       <c r="J95">
-        <v>54.25697681635689</v>
+        <v>4841269.713166492</v>
       </c>
       <c r="K95">
-        <v>435.3855760247627</v>
+        <v>3984703.442686242</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3770,22 +3770,22 @@
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>39.27987083867969</v>
+        <v>1116403.052885279</v>
       </c>
       <c r="G96">
-        <v>754.9918823394773</v>
+        <v>4841686.797562185</v>
       </c>
       <c r="H96">
-        <v>2241.894678564141</v>
+        <v>3986273.964011338</v>
       </c>
       <c r="I96">
-        <v>704.0106412171909</v>
+        <v>1116919.959210339</v>
       </c>
       <c r="J96">
-        <v>5.316286664171908</v>
+        <v>4841221.061653605</v>
       </c>
       <c r="K96">
-        <v>43.72710265286749</v>
+        <v>3984401.292459285</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3805,22 +3805,22 @@
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>38.71489398354996</v>
+        <v>1116402.445919084</v>
       </c>
       <c r="G97">
-        <v>782.0098201359976</v>
+        <v>4841703.310384118</v>
       </c>
       <c r="H97">
-        <v>2252.13951095981</v>
+        <v>3986282.645045191</v>
       </c>
       <c r="I97">
-        <v>805.3324114563045</v>
+        <v>1117000.246018981</v>
       </c>
       <c r="J97">
-        <v>-43.62440348801285</v>
+        <v>4841172.410140719</v>
       </c>
       <c r="K97">
-        <v>-367.5676201225638</v>
+        <v>3984083.99358212</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3840,22 +3840,22 @@
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>38.17360896768471</v>
+        <v>1116401.864405517</v>
       </c>
       <c r="G98">
-        <v>809.0277579325178</v>
+        <v>4841719.823206051</v>
       </c>
       <c r="H98">
-        <v>2262.096209459201</v>
+        <v>3986291.081926675</v>
       </c>
       <c r="I98">
-        <v>909.1491370732372</v>
+        <v>1117082.509816424</v>
       </c>
       <c r="J98">
-        <v>-92.56509364019782</v>
+        <v>4841123.758627833</v>
       </c>
       <c r="K98">
-        <v>-798.4985923015336</v>
+        <v>3983751.546054748</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3875,22 +3875,22 @@
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>37.65440533369301</v>
+        <v>1116401.30661443</v>
       </c>
       <c r="G99">
-        <v>836.0456957290384</v>
+        <v>4841736.336027985</v>
       </c>
       <c r="H99">
-        <v>2271.780539102528</v>
+        <v>3986299.288014411</v>
       </c>
       <c r="I99">
-        <v>1015.522254048851</v>
+        <v>1117166.799284197</v>
       </c>
       <c r="J99">
-        <v>-141.5057837923828</v>
+        <v>4841075.107114946</v>
       </c>
       <c r="K99">
-        <v>-1249.065813884042</v>
+        <v>3983403.949877168</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3910,22 +3910,22 @@
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>37.15582179698033</v>
+        <v>1116400.770975936</v>
       </c>
       <c r="G100">
-        <v>863.0636335255585</v>
+        <v>4841752.848849918</v>
       </c>
       <c r="H100">
-        <v>2281.207005449996</v>
+        <v>3986307.275599793</v>
       </c>
       <c r="I100">
-        <v>1124.514711168517</v>
+        <v>1117253.16430257</v>
       </c>
       <c r="J100">
-        <v>-190.4464739445678</v>
+        <v>4841026.45560206</v>
       </c>
       <c r="K100">
-        <v>-1719.269284870086</v>
+        <v>3983041.205049381</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3945,22 +3945,22 @@
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>36.67652894172085</v>
+        <v>1116400.256061815</v>
       </c>
       <c r="G101">
-        <v>890.0815713220788</v>
+        <v>4841769.361671852</v>
       </c>
       <c r="H101">
-        <v>2290.38898527003</v>
+        <v>3986315.056017723</v>
       </c>
       <c r="I101">
-        <v>1236.191007273531</v>
+        <v>1117341.655980065</v>
       </c>
       <c r="J101">
-        <v>-239.3871640967523</v>
+        <v>4840977.804089174</v>
       </c>
       <c r="K101">
-        <v>-2209.109005259664</v>
+        <v>3982663.311571387</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3980,22 +3980,22 @@
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>36.21531430806561</v>
+        <v>1116399.760569497</v>
       </c>
       <c r="G102">
-        <v>917.0995091185993</v>
+        <v>4841785.874493785</v>
       </c>
       <c r="H102">
-        <v>2299.338840704382</v>
+        <v>3986322.639743352</v>
       </c>
       <c r="I102">
-        <v>1350.617229429824</v>
+        <v>1117432.326683708</v>
       </c>
       <c r="J102">
-        <v>-288.3278542489373</v>
+        <v>4840929.152576288</v>
       </c>
       <c r="K102">
-        <v>-2718.584975052783</v>
+        <v>3982270.269443185</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4015,22 +4015,22 @@
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>35.77106948969958</v>
+        <v>1116399.2833082</v>
       </c>
       <c r="G103">
-        <v>944.1174469151196</v>
+        <v>4841802.387315718</v>
       </c>
       <c r="H103">
-        <v>2308.068019355244</v>
+        <v>3986330.036476891</v>
       </c>
       <c r="I103">
-        <v>1467.861092036522</v>
+        <v>1117525.230070013</v>
       </c>
       <c r="J103">
-        <v>-337.2685444011223</v>
+        <v>4840880.501063401</v>
       </c>
       <c r="K103">
-        <v>-3247.69719424944</v>
+        <v>3981862.078664775</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4050,22 +4050,22 @@
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>35.34277892917813</v>
+        <v>1116398.823186888</v>
       </c>
       <c r="G104">
-        <v>971.1353847116397</v>
+        <v>4841818.900137653</v>
       </c>
       <c r="H104">
-        <v>2316.587142327537</v>
+        <v>3986337.255218211</v>
       </c>
       <c r="I104">
-        <v>1587.991976897533</v>
+        <v>1117620.421116736</v>
       </c>
       <c r="J104">
-        <v>-386.2092345533072</v>
+        <v>4840831.849550514</v>
       </c>
       <c r="K104">
-        <v>-3796.445662849634</v>
+        <v>3981438.739236159</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4085,22 +4085,22 @@
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>34.92951015323153</v>
+        <v>1116398.379203786</v>
       </c>
       <c r="G105">
-        <v>998.1533225081603</v>
+        <v>4841835.412959585</v>
       </c>
       <c r="H105">
-        <v>2324.906081924979</v>
+        <v>3986344.30433268</v>
       </c>
       <c r="I105">
-        <v>1711.08097427986</v>
+        <v>1117717.95615541</v>
       </c>
       <c r="J105">
-        <v>-435.1499247054922</v>
+        <v>4840783.198037629</v>
       </c>
       <c r="K105">
-        <v>-4364.830380853365</v>
+        <v>3981000.251157335</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4120,22 +4120,22 @@
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>34.53040523435744</v>
+        <v>1116397.950437206</v>
       </c>
       <c r="G106">
-        <v>1025.171260304681</v>
+        <v>4841851.925781519</v>
       </c>
       <c r="H106">
-        <v>2333.03403042549</v>
+        <v>3986351.191609442</v>
       </c>
       <c r="I106">
-        <v>1837.200924982923</v>
+        <v>1117817.892904681</v>
       </c>
       <c r="J106">
-        <v>-484.0906148576767</v>
+        <v>4840734.546524743</v>
       </c>
       <c r="K106">
-        <v>-4952.851348260628</v>
+        <v>3980546.614428303</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4155,22 +4155,22 @@
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>34.1446733007885</v>
+        <v>1116397.536037497</v>
       </c>
       <c r="G107">
-        <v>1052.189198101201</v>
+        <v>4841868.438603453</v>
       </c>
       <c r="H107">
-        <v>2340.979561137459</v>
+        <v>3986357.924313154</v>
       </c>
       <c r="I107">
-        <v>1966.426463443824</v>
+        <v>1117920.290504462</v>
       </c>
       <c r="J107">
-        <v>-533.0313050098617</v>
+        <v>4840685.895011856</v>
       </c>
       <c r="K107">
-        <v>-5560.508565071434</v>
+        <v>3980077.829049065</v>
       </c>
     </row>
   </sheetData>
